--- a/io/generator_fuel_assumptions.xlsx
+++ b/io/generator_fuel_assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrown/Dropbox/MITEI/Projects/SolarDemandCurve/io/capacityexpansion-linear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrown/github/zephyr/io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E14A7A-4CCD-DD4E-8F13-4D0DFEC6F321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7FC6E9-8511-B740-9AE2-904D97BB9494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="14620" windowWidth="25600" windowHeight="14180" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_rawUSD" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Financials" sheetId="7" r:id="rId12"/>
     <sheet name="Storage_rawUSD" sheetId="10" r:id="rId13"/>
     <sheet name="Storage" sheetId="6" r:id="rId14"/>
-    <sheet name="Storage_variable_rawUSD(old)" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="dollaryear">Financials!$B$4</definedName>
@@ -174,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="283">
   <si>
     <t>Technology</t>
   </si>
@@ -284,9 +283,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>ATB2018-2030-capex</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/environment/emissions/co2_vol_mass.php</t>
   </si>
   <si>
@@ -407,18 +403,6 @@
     <t>Li_2050_low</t>
   </si>
   <si>
-    <t>Li_2020_high</t>
-  </si>
-  <si>
-    <t>Li_2025_high</t>
-  </si>
-  <si>
-    <t>Li_2030_high</t>
-  </si>
-  <si>
-    <t>Li_2050_high</t>
-  </si>
-  <si>
     <t>cost_annual_E</t>
   </si>
   <si>
@@ -434,93 +418,12 @@
     <t>[M$/GWh-yr]</t>
   </si>
   <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>Fu 2018 and Denholm 2017</t>
-  </si>
-  <si>
     <t>ERCOT VOLL</t>
   </si>
   <si>
     <t>Li_2018</t>
   </si>
   <si>
-    <t>Cole 2019 - Cost projections</t>
-  </si>
-  <si>
-    <t>Li_2015_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2020_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2025_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2030_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2035_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2040_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2045_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2050_mid_atb</t>
-  </si>
-  <si>
-    <t>Li_2015_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2020_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2025_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2030_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2035_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2040_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2045_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2050_low_atb</t>
-  </si>
-  <si>
-    <t>Li_2015_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2020_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2025_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2030_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2035_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2040_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2045_high_atb</t>
-  </si>
-  <si>
-    <t>Li_2050_high_atb</t>
-  </si>
-  <si>
     <t>[.]</t>
   </si>
   <si>
@@ -1058,15 +961,6 @@
     <t>https://www.powermag.com/georgia-psc-backs-additional-costs-for-vogtle-nuclear-project/</t>
   </si>
   <si>
-    <t>https://www.oecd-nea.org/ndd/pubs/2015/7057-proj-costs-electricity-2015.pdf</t>
-  </si>
-  <si>
-    <t>Nuclear_NEA_USA_7</t>
-  </si>
-  <si>
-    <t>Nuclear_NEA_Korea_7</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -1080,24 +974,6 @@
   </si>
   <si>
     <t>Real after-tax WACC</t>
-  </si>
-  <si>
-    <t>PV_track_2045_mid</t>
-  </si>
-  <si>
-    <t>Wind_2045_mid</t>
-  </si>
-  <si>
-    <t>Li_2045_mid</t>
-  </si>
-  <si>
-    <t>OCGT_2045_mid</t>
-  </si>
-  <si>
-    <t>CCGT_2045_mid</t>
-  </si>
-  <si>
-    <t>Nuclear_2045</t>
   </si>
   <si>
     <t>PHS_20</t>
@@ -1531,12 +1407,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="G25" sqref="G25"/>
+      <selection pane="topRight" activeCell="A59" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1562,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -1574,37 +1450,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1612,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1648,12 +1524,12 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1665,10 +1541,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -1689,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1735,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O4">
         <v>2017</v>
@@ -1746,7 +1622,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>916</v>
@@ -1758,7 +1634,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E61" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
+        <f t="shared" ref="E5:E59" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
         <v>6.7439028038694573E-2</v>
       </c>
       <c r="F5">
@@ -1787,7 +1663,7 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O5">
         <v>2017</v>
@@ -1798,7 +1674,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>849</v>
@@ -1839,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="O6">
         <v>2017</v>
@@ -1850,7 +1726,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>849</v>
@@ -1891,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="O7">
         <v>2017</v>
@@ -1902,7 +1778,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>822</v>
@@ -1943,7 +1819,7 @@
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="O8">
         <v>2017</v>
@@ -1954,7 +1830,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>822</v>
@@ -1995,7 +1871,7 @@
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O9">
         <v>2017</v>
@@ -2006,7 +1882,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>798</v>
@@ -2047,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="O10">
         <v>2017</v>
@@ -2058,7 +1934,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>798</v>
@@ -2099,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="O11">
         <v>2017</v>
@@ -2151,7 +2027,7 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O12">
         <v>2017</v>
@@ -2162,7 +2038,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>924</v>
@@ -2203,7 +2079,7 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O13">
         <v>2017</v>
@@ -2214,7 +2090,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>850</v>
@@ -2255,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="O14">
         <v>2017</v>
@@ -2266,7 +2142,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>850</v>
@@ -2307,7 +2183,7 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="O15">
         <v>2017</v>
@@ -2318,7 +2194,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>824</v>
@@ -2359,7 +2235,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="O16">
         <v>2017</v>
@@ -2370,7 +2246,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>824</v>
@@ -2411,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O17">
         <v>2017</v>
@@ -2422,7 +2298,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>798</v>
@@ -2463,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="O18">
         <v>2017</v>
@@ -2474,7 +2350,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>798</v>
@@ -2515,7 +2391,7 @@
         <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="O19">
         <v>2017</v>
@@ -2532,18 +2408,18 @@
         <v>6670</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F20">
         <f>B20*E20</f>
-        <v>362.46878788596126</v>
+        <v>449.81831701809278</v>
       </c>
       <c r="G20">
         <v>101</v>
@@ -2567,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="N20" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O20">
         <v>2017</v>
@@ -2578,24 +2454,24 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B21">
         <v>6670</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F21">
         <f>B21*E21</f>
-        <v>362.46878788596126</v>
+        <v>449.81831701809278</v>
       </c>
       <c r="G21">
         <v>101</v>
@@ -2619,7 +2495,7 @@
         <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O21">
         <v>2017</v>
@@ -2630,24 +2506,24 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B22">
         <v>6180</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F25" si="3">B22*E22</f>
-        <v>335.84064604726245</v>
+        <v>416.77319327913244</v>
       </c>
       <c r="G22">
         <v>101</v>
@@ -2671,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="N22" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="O22">
         <v>2017</v>
@@ -2682,24 +2558,24 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B23">
         <v>5844</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>317.5813487864404</v>
+        <v>394.11367985813109</v>
       </c>
       <c r="G23">
         <v>101</v>
@@ -2723,7 +2599,7 @@
         <v>25</v>
       </c>
       <c r="N23" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="O23">
         <v>2017</v>
@@ -2734,24 +2610,24 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B24">
         <v>5471</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>297.31135510106355</v>
+        <v>368.958922399698</v>
       </c>
       <c r="G24">
         <v>101</v>
@@ -2775,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="O24">
         <v>2017</v>
@@ -2786,20 +2662,20 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
@@ -2827,7 +2703,7 @@
         <v>25</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="O25">
         <v>2018</v>
@@ -2838,25 +2714,25 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B26">
         <f>(27500/2/1.117)</f>
         <v>12309.758281110117</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F26">
         <f>B26*E26</f>
-        <v>668.95099899897423</v>
+        <v>830.15813386933792</v>
       </c>
       <c r="G26">
         <v>101</v>
@@ -2880,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="O26">
         <v>2018</v>
@@ -2891,7 +2767,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2928,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O27">
         <v>2017</v>
@@ -2982,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O28">
         <v>2017</v>
@@ -3036,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O29">
         <v>2017</v>
@@ -3050,7 +2926,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <f>1109*1.3</f>
@@ -3090,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O30">
         <v>2017</v>
@@ -3104,7 +2980,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B31">
         <f>967*1.3</f>
@@ -3144,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="O31">
         <v>2017</v>
@@ -3158,7 +3034,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B32">
         <f>732*1.3</f>
@@ -3198,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="O32">
         <v>2017</v>
@@ -3212,7 +3088,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <f>860*1.3</f>
@@ -3252,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="O33">
         <v>2017</v>
@@ -3266,7 +3142,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <f>564*1.3</f>
@@ -3306,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N34" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="O34">
         <v>2017</v>
@@ -3320,7 +3196,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <f>765*1.3</f>
@@ -3360,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="O35">
         <v>2017</v>
@@ -3374,7 +3250,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B36">
         <f>422*1.3</f>
@@ -3414,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O36">
         <v>2017</v>
@@ -3428,7 +3304,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <f>682*1.3</f>
@@ -3468,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="O37">
         <v>2017</v>
@@ -3482,7 +3358,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B38">
         <f>355*1.3</f>
@@ -3522,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="O38">
         <v>2017</v>
@@ -3574,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O39">
         <v>2017</v>
@@ -3588,7 +3464,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>1623</v>
@@ -3626,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O40">
         <v>2017</v>
@@ -3640,7 +3516,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B41">
         <v>1401</v>
@@ -3678,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="O41">
         <v>2017</v>
@@ -3692,7 +3568,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B42">
         <v>1322</v>
@@ -3730,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="O42">
         <v>2017</v>
@@ -3744,7 +3620,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>1262</v>
@@ -3782,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="O43">
         <v>2017</v>
@@ -3796,7 +3672,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>1134</v>
@@ -3834,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="O44">
         <v>2017</v>
@@ -3848,7 +3724,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B45">
         <v>1144</v>
@@ -3886,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="O45">
         <v>2017</v>
@@ -3900,7 +3776,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B46">
         <v>1012</v>
@@ -3938,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="O46">
         <v>2017</v>
@@ -3952,7 +3828,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B47">
         <v>1019</v>
@@ -3990,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="O47">
         <v>2017</v>
@@ -4004,7 +3880,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>873</v>
@@ -4042,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="O48">
         <v>2017</v>
@@ -4056,7 +3932,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B49">
         <v>3972</v>
@@ -4094,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N49" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="O49">
         <v>2017</v>
@@ -4108,7 +3984,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B50">
         <v>3972</v>
@@ -4146,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N50" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="O50">
         <v>2017</v>
@@ -4160,7 +4036,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B51">
         <v>2783</v>
@@ -4198,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N51" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="O51">
         <v>2017</v>
@@ -4212,7 +4088,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B52">
         <v>2227</v>
@@ -4250,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="O52">
         <v>2017</v>
@@ -4264,7 +4140,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B53">
         <v>2146</v>
@@ -4302,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="O53">
         <v>2017</v>
@@ -4316,7 +4192,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B54">
         <v>1716</v>
@@ -4354,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O54">
         <v>2017</v>
@@ -4368,7 +4244,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B55">
         <v>1676</v>
@@ -4406,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O55">
         <v>2017</v>
@@ -4420,7 +4296,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B56">
         <v>1341</v>
@@ -4458,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="O56">
         <v>2017</v>
@@ -4472,7 +4348,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B57">
         <v>4700</v>
@@ -4510,10 +4386,10 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N57" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O57">
         <v>2016</v>
@@ -4524,24 +4400,24 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B58">
-        <v>5243</v>
+        <v>4000</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F58">
-        <f>B58*E58</f>
-        <v>284.92111767407721</v>
+        <f t="shared" ref="F58" si="12">B58*E58</f>
+        <v>269.75611215477829</v>
       </c>
       <c r="G58">
         <v>101</v>
@@ -4564,11 +4440,11 @@
       <c r="M58" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>294</v>
+      <c r="N58" t="s">
+        <v>262</v>
       </c>
       <c r="O58">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -4576,24 +4452,24 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B59">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F59">
-        <f>B59*E59</f>
-        <v>130.42355186301455</v>
+        <f t="shared" ref="F59" si="13">B59*E59</f>
+        <v>337.19514019347287</v>
       </c>
       <c r="G59">
         <v>101</v>
@@ -4616,391 +4492,23 @@
       <c r="M59" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="4" t="s">
-        <v>294</v>
+      <c r="N59" t="s">
+        <v>262</v>
       </c>
       <c r="O59">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60">
-        <v>4000</v>
-      </c>
-      <c r="C60">
-        <v>40</v>
-      </c>
-      <c r="D60">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ref="F60" si="12">B60*E60</f>
-        <v>217.37258643835759</v>
-      </c>
-      <c r="G60">
-        <v>101</v>
-      </c>
-      <c r="H60">
-        <v>2E-3</v>
-      </c>
-      <c r="I60">
-        <v>10.46</v>
-      </c>
-      <c r="J60">
-        <v>0.05</v>
-      </c>
-      <c r="K60">
-        <v>0.05</v>
-      </c>
-      <c r="L60">
-        <v>0.85</v>
-      </c>
-      <c r="M60" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" t="s">
-        <v>297</v>
-      </c>
-      <c r="O60">
-        <v>2017</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61">
-        <v>5000</v>
-      </c>
-      <c r="C61">
-        <v>40</v>
-      </c>
-      <c r="D61">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ref="F61:F66" si="13">B61*E61</f>
-        <v>271.71573304794697</v>
-      </c>
-      <c r="G61">
-        <v>101</v>
-      </c>
-      <c r="H61">
-        <v>2E-3</v>
-      </c>
-      <c r="I61">
-        <v>10.46</v>
-      </c>
-      <c r="J61">
-        <v>0.05</v>
-      </c>
-      <c r="K61">
-        <v>0.05</v>
-      </c>
-      <c r="L61">
-        <v>0.85</v>
-      </c>
-      <c r="M61" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" t="s">
-        <v>297</v>
-      </c>
-      <c r="O61">
-        <v>2017</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B62">
-        <f>723*1.3</f>
-        <v>939.9</v>
-      </c>
-      <c r="C62">
-        <v>30</v>
-      </c>
-      <c r="D62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ref="E62:E66" si="14">((D62*(1+D62)^C62)/((1+D62)^C62-1))</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="13"/>
-        <v>75.743160660093409</v>
-      </c>
-      <c r="G62">
-        <f>8.5789497806314*1.3</f>
-        <v>11.15263471482082</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" t="s">
-        <v>269</v>
-      </c>
-      <c r="O62">
-        <v>2017</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>303</v>
-      </c>
-      <c r="B63">
-        <v>1082</v>
-      </c>
-      <c r="C63">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="14"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="13"/>
-        <v>87.194488599022307</v>
-      </c>
-      <c r="G63">
-        <v>34.568125000000002</v>
-      </c>
-      <c r="H63">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" t="s">
-        <v>274</v>
-      </c>
-      <c r="O63">
-        <v>2017</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64">
-        <v>813</v>
-      </c>
-      <c r="C64">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="14"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="13"/>
-        <v>65.5167460545334</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-      <c r="H64">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I64">
-        <v>9.08</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O64">
-        <v>2017</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="s">
-        <v>306</v>
-      </c>
-      <c r="B65">
-        <v>815</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="14"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="13"/>
-        <v>65.677918861555625</v>
-      </c>
-      <c r="G65">
-        <v>11</v>
-      </c>
-      <c r="H65">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I65">
-        <v>6.28</v>
-      </c>
-      <c r="J65">
-        <v>0.5</v>
-      </c>
-      <c r="K65">
-        <v>0.5</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O65">
-        <v>2017</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66">
-        <v>5682</v>
-      </c>
-      <c r="C66">
-        <v>30</v>
-      </c>
-      <c r="D66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="14"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="13"/>
-        <v>457.8919447501338</v>
-      </c>
-      <c r="G66">
-        <v>101</v>
-      </c>
-      <c r="H66">
-        <v>2E-3</v>
-      </c>
-      <c r="I66">
-        <v>10.46</v>
-      </c>
-      <c r="J66">
-        <v>0.05</v>
-      </c>
-      <c r="K66">
-        <v>0.05</v>
-      </c>
-      <c r="L66">
-        <v>0.85</v>
-      </c>
-      <c r="M66" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" t="s">
-        <v>289</v>
-      </c>
-      <c r="O66">
-        <v>2017</v>
-      </c>
-      <c r="P66">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N26" r:id="rId1" xr:uid="{DFBF413F-BA0D-4248-A23C-E42F6CC48BFC}"/>
-    <hyperlink ref="N58" r:id="rId2" xr:uid="{E56F9F98-1C75-B243-B9C1-6B04C577D29A}"/>
-    <hyperlink ref="N59" r:id="rId3" xr:uid="{C432824C-A7F1-6A42-8341-4726C9A1C37F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5025,19 +4533,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5070,10 +4578,10 @@
         <v>53.07</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>2017</v>
@@ -5090,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <v>2017</v>
@@ -5098,7 +4606,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5109,7 +4617,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>3.3900000000000002E-3</v>
@@ -5118,10 +4626,10 @@
         <v>53.07</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>2017</v>
@@ -5129,7 +4637,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="B8">
         <v>3.3399999999999997E-3</v>
@@ -5138,10 +4646,10 @@
         <v>53.07</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>2017</v>
@@ -5149,7 +4657,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B9">
         <v>3.0400000000000002E-3</v>
@@ -5158,10 +4666,10 @@
         <v>53.07</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>2017</v>
@@ -5169,7 +4677,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="B10">
         <v>3.3300000000000001E-3</v>
@@ -5178,10 +4686,10 @@
         <v>53.07</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>2017</v>
@@ -5189,7 +4697,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="B11">
         <v>3.8500000000000001E-3</v>
@@ -5198,10 +4706,10 @@
         <v>53.07</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>2017</v>
@@ -5209,7 +4717,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B12">
         <v>3.32E-3</v>
@@ -5218,10 +4726,10 @@
         <v>53.07</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>2017</v>
@@ -5229,7 +4737,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>3.9300000000000003E-3</v>
@@ -5238,10 +4746,10 @@
         <v>53.07</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>2017</v>
@@ -5249,7 +4757,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>4.9699999999999996E-3</v>
@@ -5258,10 +4766,10 @@
         <v>53.07</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>2017</v>
@@ -5269,7 +4777,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <v>3.3999999999999998E-3</v>
@@ -5278,10 +4786,10 @@
         <v>53.07</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>2017</v>
@@ -5289,7 +4797,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B16">
         <v>4.1099999999999999E-3</v>
@@ -5298,10 +4806,10 @@
         <v>53.07</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>2017</v>
@@ -5309,7 +4817,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>5.8200000000000005E-3</v>
@@ -5318,10 +4826,10 @@
         <v>53.07</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>2017</v>
@@ -5329,7 +4837,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B18">
         <v>3.5699999999999998E-3</v>
@@ -5338,10 +4846,10 @@
         <v>53.07</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>2017</v>
@@ -5349,7 +4857,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B19">
         <v>4.5500000000000002E-3</v>
@@ -5358,10 +4866,10 @@
         <v>53.07</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>2017</v>
@@ -5369,7 +4877,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <v>6.8099999999999992E-3</v>
@@ -5378,10 +4886,10 @@
         <v>53.07</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>2017</v>
@@ -5389,7 +4897,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <v>3.81E-3</v>
@@ -5398,10 +4906,10 @@
         <v>53.07</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>2017</v>
@@ -5409,7 +4917,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B22">
         <v>5.2399999999999999E-3</v>
@@ -5418,10 +4926,10 @@
         <v>53.07</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>2017</v>
@@ -5429,7 +4937,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B23">
         <v>8.4200000000000004E-3</v>
@@ -5438,10 +4946,10 @@
         <v>53.07</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
         <v>2017</v>
@@ -5449,7 +4957,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B24">
         <v>2E-3</v>
@@ -5458,7 +4966,7 @@
         <v>53.07</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>2017</v>
@@ -5466,7 +4974,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="B25">
         <v>3.0000000000000001E-3</v>
@@ -5475,7 +4983,7 @@
         <v>53.07</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>2017</v>
@@ -5483,7 +4991,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B26">
         <v>4.0000000000000001E-3</v>
@@ -5492,7 +5000,7 @@
         <v>53.07</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>2017</v>
@@ -5500,7 +5008,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="B27">
         <v>5.0000000000000001E-3</v>
@@ -5509,7 +5017,7 @@
         <v>53.07</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>2017</v>
@@ -5517,7 +5025,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="B28">
         <v>6.0000000000000001E-3</v>
@@ -5526,7 +5034,7 @@
         <v>53.07</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>2017</v>
@@ -5534,7 +5042,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B29">
         <v>7.0000000000000001E-3</v>
@@ -5543,7 +5051,7 @@
         <v>53.07</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29">
         <v>2017</v>
@@ -5551,7 +5059,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="B30">
         <v>8.0000000000000002E-3</v>
@@ -5560,7 +5068,7 @@
         <v>53.07</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30">
         <v>2017</v>
@@ -5568,7 +5076,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B31">
         <v>8.9999999999999993E-3</v>
@@ -5577,7 +5085,7 @@
         <v>53.07</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31">
         <v>2017</v>
@@ -5585,7 +5093,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B32">
         <v>0.01</v>
@@ -5594,7 +5102,7 @@
         <v>53.07</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>2017</v>
@@ -5626,19 +5134,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6187,27 +5695,27 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6215,10 +5723,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6342,16 +5850,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
@@ -6360,43 +5868,43 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
       </c>
       <c r="R1" t="s">
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6407,16 +5915,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6452,7 +5960,7 @@
         <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6463,7 +5971,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -6475,10 +5983,10 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -6505,12 +6013,12 @@
         <v>5</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6568,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4">
         <v>2016</v>
@@ -6579,7 +6087,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6637,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S5">
         <v>2016</v>
@@ -6648,7 +6156,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -6706,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S6">
         <v>2016</v>
@@ -6717,7 +6225,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -6774,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7">
         <v>2016</v>
@@ -6785,7 +6293,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -6843,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S8">
         <v>2016</v>
@@ -6854,7 +6362,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6912,7 +6420,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="R9" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>2018</v>
@@ -6923,7 +6431,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -6981,7 +6489,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="R10" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="S10">
         <v>2018</v>
@@ -6992,7 +6500,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -7050,7 +6558,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="R11" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="S11">
         <v>2018</v>
@@ -7061,7 +6569,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -7119,7 +6627,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="R12" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="S12">
         <v>2018</v>
@@ -7130,7 +6638,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7188,7 +6696,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="R13" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="S13">
         <v>2018</v>
@@ -7208,7 +6716,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7238,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
@@ -7256,40 +6764,40 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
       </c>
       <c r="R1" t="s">
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="T1" t="str">
         <f>Storage_rawUSD!T1</f>
@@ -7304,16 +6812,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -7361,7 +6869,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -7373,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -8223,2531 +7731,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:R41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>307</v>
-      </c>
-      <c r="C4">
-        <v>294</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E41" si="0">((wacc*(1+wacc)^D4)/((1+wacc)^D4-1))</f>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F4">
-        <f>B4*E4</f>
-        <v>27.999453650916188</v>
-      </c>
-      <c r="G4">
-        <f>C4*E4</f>
-        <v>26.813809033776415</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:O4" si="1">SQRT(0.85)</f>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5">
-        <v>425</v>
-      </c>
-      <c r="C5">
-        <v>670</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F5">
-        <f>B5*E5</f>
-        <v>38.761458637261825</v>
-      </c>
-      <c r="G5">
-        <f>C5*E5</f>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H5">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I5">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>SQRT(0.9)</f>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O28" si="2">SQRT(0.9)</f>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6">
-        <v>281.25636487829109</v>
-      </c>
-      <c r="C6">
-        <v>615.50537199807502</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F41" si="3">B6*E6</f>
-        <v>25.65154577340353</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G41" si="4">C6*E6</f>
-        <v>56.136202394625499</v>
-      </c>
-      <c r="H6">
-        <v>8.6450000000000031</v>
-      </c>
-      <c r="I6">
-        <v>2.4977400000000009E-3</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N28" si="5">SQRT(0.9)</f>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7">
-        <v>221.2893888274582</v>
-      </c>
-      <c r="C7">
-        <v>561.01074399615004</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>20.182351745648166</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>51.166105290508831</v>
-      </c>
-      <c r="H7">
-        <v>8.1130000000000049</v>
-      </c>
-      <c r="I7">
-        <v>2.2024800000000015E-3</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8">
-        <v>200.28124999999997</v>
-      </c>
-      <c r="C8">
-        <v>506.51611599422506</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>18.266337382809631</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>46.196008186392156</v>
-      </c>
-      <c r="H8">
-        <v>7.5810000000000102</v>
-      </c>
-      <c r="I8">
-        <v>1.9072200000000016E-3</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9">
-        <v>189.96560660639008</v>
-      </c>
-      <c r="C9">
-        <v>452.02148799230008</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>17.325515301119861</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>41.225911082275488</v>
-      </c>
-      <c r="H9">
-        <v>7.0490000000000093</v>
-      </c>
-      <c r="I9">
-        <v>1.611960000000001E-3</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10">
-        <v>185.32632059266038</v>
-      </c>
-      <c r="C10">
-        <v>397.52685999037499</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>16.902396494231365</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>36.255813978158805</v>
-      </c>
-      <c r="H10">
-        <v>6.5170000000000066</v>
-      </c>
-      <c r="I10">
-        <v>1.3167000000000005E-3</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11">
-        <v>177.43084709467325</v>
-      </c>
-      <c r="C11">
-        <v>397.52685999037499</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>16.182302213257657</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>36.255813978158805</v>
-      </c>
-      <c r="H11">
-        <v>6.5170000000000066</v>
-      </c>
-      <c r="I11">
-        <v>1.3167000000000005E-3</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <v>170.12391233220129</v>
-      </c>
-      <c r="C12">
-        <v>397.52685999037499</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>15.515884684879476</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>36.255813978158805</v>
-      </c>
-      <c r="H12">
-        <v>6.5170000000000101</v>
-      </c>
-      <c r="I12">
-        <v>1.3167000000000005E-3</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13">
-        <v>425</v>
-      </c>
-      <c r="C13">
-        <v>670</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>38.761458637261825</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H13">
-        <v>9.1770000000000014</v>
-      </c>
-      <c r="I13">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>206.15671641791042</v>
-      </c>
-      <c r="C14">
-        <v>589.05156244600835</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>18.80220008523894</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>53.723524171683302</v>
-      </c>
-      <c r="H14">
-        <v>7.8736000000000006</v>
-      </c>
-      <c r="I14">
-        <v>2.3407999999999997E-3</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15">
-        <v>118.05555555555556</v>
-      </c>
-      <c r="C15">
-        <v>508.10312489201664</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>10.767071843683841</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>46.340748844624429</v>
-      </c>
-      <c r="H15">
-        <v>6.5701999999999989</v>
-      </c>
-      <c r="I15">
-        <v>1.8885999999999994E-3</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>77.388059701492537</v>
-      </c>
-      <c r="C16">
-        <v>427.15468733802493</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>7.0580566473820037</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>38.957973517565556</v>
-      </c>
-      <c r="H16">
-        <v>5.2667999999999973</v>
-      </c>
-      <c r="I16">
-        <v>1.4363999999999989E-3</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17">
-        <v>72.602500912801716</v>
-      </c>
-      <c r="C17">
-        <v>346.20624978403322</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>6.6215972613960652</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>31.575198190506679</v>
-      </c>
-      <c r="H17">
-        <v>3.963399999999996</v>
-      </c>
-      <c r="I17">
-        <v>9.8419999999999888E-4</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>69.567341823099355</v>
-      </c>
-      <c r="C18">
-        <v>265.25781223004145</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>6.3447803354831063</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>24.192422863447803</v>
-      </c>
-      <c r="H18">
-        <v>2.659999999999997</v>
-      </c>
-      <c r="I18">
-        <v>5.319999999999984E-4</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>66.603558255103323</v>
-      </c>
-      <c r="C19">
-        <v>265.25781223004145</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>6.0744731021168139</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>24.192422863447803</v>
-      </c>
-      <c r="H19">
-        <v>2.659999999999997</v>
-      </c>
-      <c r="I19">
-        <v>5.319999999999984E-4</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20">
-        <v>63.860698920960218</v>
-      </c>
-      <c r="C20">
-        <v>265.25781223004145</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>5.8243149171092474</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>24.192422863447803</v>
-      </c>
-      <c r="H20">
-        <v>2.659999999999997</v>
-      </c>
-      <c r="I20">
-        <v>5.319999999999984E-4</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21">
-        <v>425</v>
-      </c>
-      <c r="C21">
-        <v>670</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>38.761458637261825</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H21">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I21">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22">
-        <v>396.26233450390811</v>
-      </c>
-      <c r="C22">
-        <v>670</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>36.14048491383069</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H22">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I22">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23">
-        <v>338.2349801260545</v>
-      </c>
-      <c r="C23">
-        <v>670</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F23">
-        <f>B23*E23</f>
-        <v>30.848191039602675</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H23">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I23">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24">
-        <v>290.3056238490949</v>
-      </c>
-      <c r="C24">
-        <v>670</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>26.476869249391015</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H24">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I24">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25">
-        <v>278.35283865887806</v>
-      </c>
-      <c r="C25">
-        <v>670</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>25.386734217036508</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H25">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I25">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26">
-        <v>276.39371560798418</v>
-      </c>
-      <c r="C26">
-        <v>670</v>
-      </c>
-      <c r="D26">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>25.20805547091291</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H26">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I26">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27">
-        <v>264.61848988929341</v>
-      </c>
-      <c r="C27">
-        <v>670</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>24.134114471761254</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H27">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I27">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28">
-        <v>253.72100461981702</v>
-      </c>
-      <c r="C28">
-        <v>670</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>23.140226414060127</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>61.106299498742175</v>
-      </c>
-      <c r="H28">
-        <v>9.1769999999999996</v>
-      </c>
-      <c r="I28">
-        <v>2.7930000000000003E-3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>0.94868329805051377</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29">
-        <v>209.17338709677401</v>
-      </c>
-      <c r="C29">
-        <v>685.04201680672202</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>19.077330804629558</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>62.478183057035707</v>
-      </c>
-      <c r="H29">
-        <f>0.025*(C29+4*B29)</f>
-        <v>38.043389129845451</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ref="N29:O41" si="6">SQRT(0.85)</f>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>90</v>
-      </c>
-      <c r="R29">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30">
-        <v>180.695564516129</v>
-      </c>
-      <c r="C30">
-        <v>592.94117647058795</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>16.480055646890847</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>54.078270320221314</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H41" si="7">0.025*(C30+4*B30)</f>
-        <v>32.8930858633776</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>90</v>
-      </c>
-      <c r="R30">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31">
-        <v>136.34072580645099</v>
-      </c>
-      <c r="C31">
-        <v>447.731092436974</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>12.434742126872955</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>40.834612282616042</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
-        <v>24.827349891569451</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>90</v>
-      </c>
-      <c r="R31">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32">
-        <v>114.163306451612</v>
-      </c>
-      <c r="C32">
-        <v>374.45378151260502</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>10.412085366864011</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>34.151470032157917</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="7"/>
-        <v>20.777675182976328</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>90</v>
-      </c>
-      <c r="R32">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33">
-        <v>85.685483870967701</v>
-      </c>
-      <c r="C33">
-        <v>280.33613445378103</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>7.8148102091253646</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>25.567617600376714</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="7"/>
-        <v>15.576951748441298</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34">
-        <v>163.810483870967</v>
-      </c>
-      <c r="C34">
-        <v>539.15966386554601</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>14.940078340974901</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>49.173211787774946</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>29.860039983735351</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>90</v>
-      </c>
-      <c r="R34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35">
-        <v>101.310483870967</v>
-      </c>
-      <c r="C35">
-        <v>335.46218487394901</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>9.2398638354952212</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>30.595302596134246</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="7"/>
-        <v>18.517603008945425</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>90</v>
-      </c>
-      <c r="R35">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36">
-        <v>68.800403225806406</v>
-      </c>
-      <c r="C36">
-        <v>225.21008403361299</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>6.2748329032094823</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>20.539932604619175</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="7"/>
-        <v>12.510292423420966</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>90</v>
-      </c>
-      <c r="R36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37">
-        <v>41.582661290322498</v>
-      </c>
-      <c r="C37">
-        <v>137.81512605041999</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>3.7924814250167151</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>12.569212489393832</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="7"/>
-        <v>7.60364428029275</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>90</v>
-      </c>
-      <c r="R37">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38">
-        <v>197.83266129032199</v>
-      </c>
-      <c r="C38">
-        <v>646.72268907563</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>18.043017688715871</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>58.983328852667697</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="7"/>
-        <v>35.951333355922955</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>90</v>
-      </c>
-      <c r="R38">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39">
-        <v>181.70362903225799</v>
-      </c>
-      <c r="C39">
-        <v>592.26890756302498</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>16.571994590527613</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>54.016957088565739</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
-        <v>32.977085592301421</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R39">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40">
-        <v>165.826612903225</v>
-      </c>
-      <c r="C40">
-        <v>543.19327731092403</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>15.123956228248433</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>49.54109117770841</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="7"/>
-        <v>30.162493223095602</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>90</v>
-      </c>
-      <c r="R40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41">
-        <v>145.16129032257999</v>
-      </c>
-      <c r="C41">
-        <v>474.62184873949502</v>
-      </c>
-      <c r="D41">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>9.1203432087674882E-2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>13.23920788369468</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>43.287141548839237</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="7"/>
-        <v>26.381675250745378</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="6"/>
-        <v>0.92195444572928875</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>90</v>
-      </c>
-      <c r="R41">
-        <v>2018</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10774,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -10786,34 +7776,34 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P1" t="str">
         <f>Generators_rawUSD!P1</f>
@@ -10825,13 +7815,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -10867,7 +7857,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -10879,10 +7869,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -10990,7 +7980,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E61" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
+        <f t="shared" ref="E5:E59" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
         <v>6.7439028038694573E-2</v>
       </c>
       <c r="F5">
@@ -11958,7 +8948,7 @@
       </c>
       <c r="C20">
         <f>Generators_rawUSD!C20</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <f>Generators_rawUSD!D20</f>
@@ -11966,11 +8956,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>362.46878788596126</v>
+        <v>449.81831701809278</v>
       </c>
       <c r="G20">
         <f>Generators_rawUSD!G20*inflator_2017</f>
@@ -12023,7 +9013,7 @@
       </c>
       <c r="C21">
         <f>Generators_rawUSD!C21</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <f>Generators_rawUSD!D21</f>
@@ -12031,11 +9021,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>362.46878788596126</v>
+        <v>449.81831701809278</v>
       </c>
       <c r="G21">
         <f>Generators_rawUSD!G21*inflator_2017</f>
@@ -12088,7 +9078,7 @@
       </c>
       <c r="C22">
         <f>Generators_rawUSD!C22</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <f>Generators_rawUSD!D22</f>
@@ -12096,11 +9086,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>335.84064604726245</v>
+        <v>416.77319327913244</v>
       </c>
       <c r="G22">
         <f>Generators_rawUSD!G22*inflator_2017</f>
@@ -12153,7 +9143,7 @@
       </c>
       <c r="C23">
         <f>Generators_rawUSD!C23</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <f>Generators_rawUSD!D23</f>
@@ -12161,11 +9151,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>317.5813487864404</v>
+        <v>394.11367985813109</v>
       </c>
       <c r="G23">
         <f>Generators_rawUSD!G23*inflator_2017</f>
@@ -12218,7 +9208,7 @@
       </c>
       <c r="C24">
         <f>Generators_rawUSD!C24</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <f>Generators_rawUSD!D24</f>
@@ -12226,11 +9216,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>297.31135510106355</v>
+        <v>368.958922399698</v>
       </c>
       <c r="G24">
         <f>Generators_rawUSD!G24*inflator_2017</f>
@@ -12283,7 +9273,7 @@
       </c>
       <c r="C25">
         <f>Generators_rawUSD!C25</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <f>Generators_rawUSD!D25</f>
@@ -12291,7 +9281,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25:F30" si="2">B25*E25</f>
@@ -12348,7 +9338,7 @@
       </c>
       <c r="C26">
         <f>Generators_rawUSD!C26</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <f>Generators_rawUSD!D26</f>
@@ -12356,11 +9346,11 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F26">
         <f t="shared" ref="F26" si="3">B26*E26</f>
-        <v>653.00158448242564</v>
+        <v>810.36515021107334</v>
       </c>
       <c r="G26">
         <f>Generators_rawUSD!G26*inflator_2017</f>
@@ -14420,15 +11410,15 @@
     <row r="58" spans="1:16">
       <c r="A58" t="str">
         <f>Generators_rawUSD!A58</f>
-        <v>Nuclear_NEA_USA_7</v>
+        <v>Nuclear_4</v>
       </c>
       <c r="B58">
-        <f>Generators_rawUSD!B58*inflator_2013</f>
-        <v>5516.7441201594947</v>
+        <f>Generators_rawUSD!B58*inflator_2017</f>
+        <v>4000</v>
       </c>
       <c r="C58">
         <f>Generators_rawUSD!C58</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <f>Generators_rawUSD!D58</f>
@@ -14436,11 +11426,11 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F60" si="5">B58*E58</f>
-        <v>299.79723452941766</v>
+        <f t="shared" ref="F58" si="5">B58*E58</f>
+        <v>269.75611215477829</v>
       </c>
       <c r="G58">
         <f>Generators_rawUSD!G58*inflator_2017</f>
@@ -14472,7 +11462,7 @@
       </c>
       <c r="N58" t="str">
         <f>Generators_rawUSD!N58</f>
-        <v>https://www.oecd-nea.org/ndd/pubs/2015/7057-proj-costs-electricity-2015.pdf</v>
+        <v>None</v>
       </c>
       <c r="O58">
         <v>2017</v>
@@ -14485,15 +11475,15 @@
     <row r="59" spans="1:16">
       <c r="A59" t="str">
         <f>Generators_rawUSD!A59</f>
-        <v>Nuclear_NEA_Korea_7</v>
+        <v>Nuclear_5</v>
       </c>
       <c r="B59">
-        <f>Generators_rawUSD!B59*inflator_2013</f>
-        <v>2525.3072455431598</v>
+        <f>Generators_rawUSD!B59*inflator_2017</f>
+        <v>5000</v>
       </c>
       <c r="C59">
         <f>Generators_rawUSD!C59</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <f>Generators_rawUSD!D59</f>
@@ -14501,11 +11491,11 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
+        <v>6.7439028038694573E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
-        <v>137.2331418788103</v>
+        <f t="shared" ref="F59" si="6">B59*E59</f>
+        <v>337.19514019347287</v>
       </c>
       <c r="G59">
         <f>Generators_rawUSD!G59*inflator_2017</f>
@@ -14537,468 +11527,13 @@
       </c>
       <c r="N59" t="str">
         <f>Generators_rawUSD!N59</f>
-        <v>https://www.oecd-nea.org/ndd/pubs/2015/7057-proj-costs-electricity-2015.pdf</v>
+        <v>None</v>
       </c>
       <c r="O59">
         <v>2017</v>
       </c>
       <c r="P59">
         <f>Generators_rawUSD!P59</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="str">
-        <f>Generators_rawUSD!A60</f>
-        <v>Nuclear_4</v>
-      </c>
-      <c r="B60">
-        <f>Generators_rawUSD!B60*inflator_2017</f>
-        <v>4000</v>
-      </c>
-      <c r="C60">
-        <f>Generators_rawUSD!C60</f>
-        <v>40</v>
-      </c>
-      <c r="D60">
-        <f>Generators_rawUSD!D60</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="5"/>
-        <v>217.37258643835759</v>
-      </c>
-      <c r="G60">
-        <f>Generators_rawUSD!G60*inflator_2017</f>
-        <v>101</v>
-      </c>
-      <c r="H60">
-        <f>Generators_rawUSD!H60*inflator_2017</f>
-        <v>2E-3</v>
-      </c>
-      <c r="I60">
-        <f>Generators_rawUSD!I60</f>
-        <v>10.46</v>
-      </c>
-      <c r="J60">
-        <f>Generators_rawUSD!J60</f>
-        <v>0.05</v>
-      </c>
-      <c r="K60">
-        <f>Generators_rawUSD!K60</f>
-        <v>0.05</v>
-      </c>
-      <c r="L60">
-        <f>Generators_rawUSD!L60</f>
-        <v>0.85</v>
-      </c>
-      <c r="M60" t="str">
-        <f>Generators_rawUSD!M60</f>
-        <v>uranium</v>
-      </c>
-      <c r="N60" t="str">
-        <f>Generators_rawUSD!N60</f>
-        <v>None</v>
-      </c>
-      <c r="O60">
-        <v>2017</v>
-      </c>
-      <c r="P60">
-        <f>Generators_rawUSD!P60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="str">
-        <f>Generators_rawUSD!A61</f>
-        <v>Nuclear_5</v>
-      </c>
-      <c r="B61">
-        <f>Generators_rawUSD!B61*inflator_2017</f>
-        <v>5000</v>
-      </c>
-      <c r="C61">
-        <f>Generators_rawUSD!C61</f>
-        <v>40</v>
-      </c>
-      <c r="D61">
-        <f>Generators_rawUSD!D61</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>5.4343146609589395E-2</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ref="F61" si="6">B61*E61</f>
-        <v>271.71573304794697</v>
-      </c>
-      <c r="G61">
-        <f>Generators_rawUSD!G61*inflator_2017</f>
-        <v>101</v>
-      </c>
-      <c r="H61">
-        <f>Generators_rawUSD!H61*inflator_2017</f>
-        <v>2E-3</v>
-      </c>
-      <c r="I61">
-        <f>Generators_rawUSD!I61</f>
-        <v>10.46</v>
-      </c>
-      <c r="J61">
-        <f>Generators_rawUSD!J61</f>
-        <v>0.05</v>
-      </c>
-      <c r="K61">
-        <f>Generators_rawUSD!K61</f>
-        <v>0.05</v>
-      </c>
-      <c r="L61">
-        <f>Generators_rawUSD!L61</f>
-        <v>0.85</v>
-      </c>
-      <c r="M61" t="str">
-        <f>Generators_rawUSD!M61</f>
-        <v>uranium</v>
-      </c>
-      <c r="N61" t="str">
-        <f>Generators_rawUSD!N61</f>
-        <v>None</v>
-      </c>
-      <c r="O61">
-        <v>2017</v>
-      </c>
-      <c r="P61">
-        <f>Generators_rawUSD!P61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="str">
-        <f>Generators_rawUSD!A62</f>
-        <v>PV_track_2045_mid</v>
-      </c>
-      <c r="B62">
-        <f>Generators_rawUSD!B62*inflator_2017</f>
-        <v>939.9</v>
-      </c>
-      <c r="C62">
-        <f>Generators_rawUSD!C62</f>
-        <v>30</v>
-      </c>
-      <c r="D62">
-        <f>Generators_rawUSD!D62</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ref="E62:E63" si="7">((D62*(1+D62)^C62)/((1+D62)^C62-1))</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ref="F62:F63" si="8">B62*E62</f>
-        <v>75.743160660093409</v>
-      </c>
-      <c r="G62">
-        <f>Generators_rawUSD!G62*inflator_2017</f>
-        <v>11.15263471482082</v>
-      </c>
-      <c r="H62">
-        <f>Generators_rawUSD!H62*inflator_2017</f>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f>Generators_rawUSD!I62</f>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f>Generators_rawUSD!J62</f>
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <f>Generators_rawUSD!K62</f>
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <f>Generators_rawUSD!L62</f>
-        <v>0</v>
-      </c>
-      <c r="M62" t="str">
-        <f>Generators_rawUSD!M62</f>
-        <v>none</v>
-      </c>
-      <c r="N62" t="str">
-        <f>Generators_rawUSD!N62</f>
-        <v>ATB2019-2030-capex-marketfactors</v>
-      </c>
-      <c r="O62">
-        <v>2017</v>
-      </c>
-      <c r="P62">
-        <f>Generators_rawUSD!P62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="str">
-        <f>Generators_rawUSD!A63</f>
-        <v>Wind_2045_mid</v>
-      </c>
-      <c r="B63">
-        <f>Generators_rawUSD!B63*inflator_2017</f>
-        <v>1082</v>
-      </c>
-      <c r="C63">
-        <f>Generators_rawUSD!C63</f>
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <f>Generators_rawUSD!D63</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="7"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="8"/>
-        <v>87.194488599022307</v>
-      </c>
-      <c r="G63">
-        <f>Generators_rawUSD!G63*inflator_2017</f>
-        <v>34.568125000000002</v>
-      </c>
-      <c r="H63">
-        <f>Generators_rawUSD!H63*inflator_2017</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="I63">
-        <f>Generators_rawUSD!I63</f>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f>Generators_rawUSD!J63</f>
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <f>Generators_rawUSD!K63</f>
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <f>Generators_rawUSD!L63</f>
-        <v>0</v>
-      </c>
-      <c r="M63" t="str">
-        <f>Generators_rawUSD!M63</f>
-        <v>none</v>
-      </c>
-      <c r="N63" t="str">
-        <f>Generators_rawUSD!N63</f>
-        <v>ATB2019-2030-mid-marketfactors</v>
-      </c>
-      <c r="O63">
-        <v>2017</v>
-      </c>
-      <c r="P63">
-        <f>Generators_rawUSD!P63</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" t="str">
-        <f>Generators_rawUSD!A64</f>
-        <v>OCGT_2045_mid</v>
-      </c>
-      <c r="B64">
-        <f>Generators_rawUSD!B64*inflator_2017</f>
-        <v>813</v>
-      </c>
-      <c r="C64">
-        <f>Generators_rawUSD!C64</f>
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <f>Generators_rawUSD!D64</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ref="E64:E66" si="9">((D64*(1+D64)^C64)/((1+D64)^C64-1))</f>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ref="F64:F66" si="10">B64*E64</f>
-        <v>65.5167460545334</v>
-      </c>
-      <c r="G64">
-        <f>Generators_rawUSD!G64*inflator_2017</f>
-        <v>12</v>
-      </c>
-      <c r="H64">
-        <f>Generators_rawUSD!H64*inflator_2017</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I64">
-        <f>Generators_rawUSD!I64</f>
-        <v>9.08</v>
-      </c>
-      <c r="J64">
-        <f>Generators_rawUSD!J64</f>
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <f>Generators_rawUSD!K64</f>
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <f>Generators_rawUSD!L64</f>
-        <v>0</v>
-      </c>
-      <c r="M64" t="str">
-        <f>Generators_rawUSD!M64</f>
-        <v>naturalgas</v>
-      </c>
-      <c r="N64" t="str">
-        <f>Generators_rawUSD!N64</f>
-        <v>ATB2019-2040-mid-marketfactors</v>
-      </c>
-      <c r="O64">
-        <v>2017</v>
-      </c>
-      <c r="P64">
-        <f>Generators_rawUSD!P64</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" t="str">
-        <f>Generators_rawUSD!A65</f>
-        <v>CCGT_2045_mid</v>
-      </c>
-      <c r="B65">
-        <f>Generators_rawUSD!B65*inflator_2017</f>
-        <v>815</v>
-      </c>
-      <c r="C65">
-        <f>Generators_rawUSD!C65</f>
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <f>Generators_rawUSD!D65</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="9"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="10"/>
-        <v>65.677918861555625</v>
-      </c>
-      <c r="G65">
-        <f>Generators_rawUSD!G65*inflator_2017</f>
-        <v>11</v>
-      </c>
-      <c r="H65">
-        <f>Generators_rawUSD!H65*inflator_2017</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I65">
-        <f>Generators_rawUSD!I65</f>
-        <v>6.28</v>
-      </c>
-      <c r="J65">
-        <f>Generators_rawUSD!J65</f>
-        <v>0.5</v>
-      </c>
-      <c r="K65">
-        <f>Generators_rawUSD!K65</f>
-        <v>0.5</v>
-      </c>
-      <c r="L65">
-        <f>Generators_rawUSD!L65</f>
-        <v>0</v>
-      </c>
-      <c r="M65" t="str">
-        <f>Generators_rawUSD!M65</f>
-        <v>naturalgas</v>
-      </c>
-      <c r="N65" t="str">
-        <f>Generators_rawUSD!N65</f>
-        <v>ATB2019-2050-mid-marketfactors</v>
-      </c>
-      <c r="O65">
-        <v>2017</v>
-      </c>
-      <c r="P65">
-        <f>Generators_rawUSD!P65</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="str">
-        <f>Generators_rawUSD!A66</f>
-        <v>Nuclear_2045</v>
-      </c>
-      <c r="B66">
-        <f>Generators_rawUSD!B66*inflator_2017</f>
-        <v>5682</v>
-      </c>
-      <c r="C66">
-        <f>Generators_rawUSD!C66</f>
-        <v>30</v>
-      </c>
-      <c r="D66">
-        <f>Generators_rawUSD!D66</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="9"/>
-        <v>8.0586403511111196E-2</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="10"/>
-        <v>457.8919447501338</v>
-      </c>
-      <c r="G66">
-        <f>Generators_rawUSD!G66*inflator_2017</f>
-        <v>101</v>
-      </c>
-      <c r="H66">
-        <f>Generators_rawUSD!H66*inflator_2017</f>
-        <v>2E-3</v>
-      </c>
-      <c r="I66">
-        <f>Generators_rawUSD!I66</f>
-        <v>10.46</v>
-      </c>
-      <c r="J66">
-        <f>Generators_rawUSD!J66</f>
-        <v>0.05</v>
-      </c>
-      <c r="K66">
-        <f>Generators_rawUSD!K66</f>
-        <v>0.05</v>
-      </c>
-      <c r="L66">
-        <f>Generators_rawUSD!L66</f>
-        <v>0.85</v>
-      </c>
-      <c r="M66" t="str">
-        <f>Generators_rawUSD!M66</f>
-        <v>uranium</v>
-      </c>
-      <c r="N66" t="str">
-        <f>Generators_rawUSD!N66</f>
-        <v>ATB2019-2040-marketfactors</v>
-      </c>
-      <c r="O66">
-        <v>2017</v>
-      </c>
-      <c r="P66">
-        <f>Generators_rawUSD!P66</f>
         <v>1</v>
       </c>
     </row>
@@ -15035,16 +11570,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -15053,39 +11588,39 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -15106,24 +11641,24 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -15135,22 +11670,22 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15188,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M4">
         <v>2010</v>
@@ -15232,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M5">
         <v>2010</v>
@@ -15276,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M6">
         <v>2010</v>
@@ -15320,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M7">
         <v>2010</v>
@@ -15331,7 +11866,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <f>1.4/1.60934</f>
@@ -15365,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M8">
         <v>2010</v>
@@ -15405,16 +11940,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -15423,13 +11958,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
       </c>
       <c r="J1" t="str">
         <f>Transmission_raw!J1</f>
@@ -15443,7 +11978,7 @@
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N1" t="str">
         <f>Transmission_raw!N1</f>
@@ -15452,13 +11987,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -15493,13 +12028,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -15511,10 +12046,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -15833,10 +12368,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -15845,37 +12380,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15883,13 +12418,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -15919,12 +12454,12 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -15936,10 +12471,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -15960,12 +12495,12 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>4700</v>
@@ -16003,10 +12538,10 @@
         <v>0.1</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O4">
         <v>2016</v>
@@ -16017,7 +12552,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>4700</v>
@@ -16055,10 +12590,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O5">
         <v>2016</v>
@@ -16103,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -16115,34 +12650,34 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="P1" t="str">
         <f>Hydro_rawUSD!P1</f>
@@ -16154,13 +12689,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -16196,7 +12731,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -16208,10 +12743,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -16375,7 +12910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -16383,45 +12918,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
@@ -16429,7 +12964,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -16450,12 +12985,12 @@
         <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2">
         <v>0.89</v>
@@ -16476,12 +13011,12 @@
         <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2">
         <v>0.78</v>
@@ -16502,12 +13037,12 @@
         <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2">
         <v>0.72</v>
@@ -16528,12 +13063,12 @@
         <v>353</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2">
         <v>0.66</v>
@@ -16554,12 +13089,12 @@
         <v>347</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2">
         <v>0.6</v>
@@ -16580,12 +13115,12 @@
         <v>341</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2">
         <v>0.54</v>
@@ -16606,12 +13141,12 @@
         <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B10" s="2">
         <v>0.48</v>
@@ -16632,12 +13167,12 @@
         <v>330</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2">
         <v>0.45</v>
@@ -16658,12 +13193,12 @@
         <v>324</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2">
         <v>0.42</v>
@@ -16684,12 +13219,12 @@
         <v>318</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2">
         <v>0.39</v>
@@ -16710,12 +13245,12 @@
         <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2">
         <v>0.36</v>
@@ -16736,12 +13271,12 @@
         <v>307</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2">
         <v>0.33</v>
@@ -16762,12 +13297,12 @@
         <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2">
         <v>0.32</v>
@@ -16788,12 +13323,12 @@
         <v>299</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2">
         <v>0.31</v>
@@ -16814,12 +13349,12 @@
         <v>297</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2">
         <v>0.31</v>
@@ -16840,12 +13375,12 @@
         <v>295</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2">
         <v>0.3</v>
@@ -16866,12 +13401,12 @@
         <v>293</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2">
         <v>0.3</v>
@@ -16892,12 +13427,12 @@
         <v>291</v>
       </c>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2">
         <v>0.28999999999999998</v>
@@ -16918,12 +13453,12 @@
         <v>290</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2">
         <v>0.28000000000000003</v>
@@ -16944,12 +13479,12 @@
         <v>288</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2">
         <v>0.28000000000000003</v>
@@ -16970,12 +13505,12 @@
         <v>286</v>
       </c>
       <c r="H23" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2">
         <v>0.27</v>
@@ -16996,12 +13531,12 @@
         <v>284</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2">
         <v>0.26</v>
@@ -17022,12 +13557,12 @@
         <v>282</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2">
         <v>0.26</v>
@@ -17048,12 +13583,12 @@
         <v>280</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2">
         <v>0.25</v>
@@ -17074,12 +13609,12 @@
         <v>278</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2">
         <v>0.24</v>
@@ -17100,12 +13635,12 @@
         <v>276</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2">
         <v>0.24</v>
@@ -17126,12 +13661,12 @@
         <v>274</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2">
         <v>0.23</v>
@@ -17152,12 +13687,12 @@
         <v>273</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B31" s="2">
         <v>0.22</v>
@@ -17178,12 +13713,12 @@
         <v>271</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2">
         <v>0.22</v>
@@ -17204,12 +13739,12 @@
         <v>269</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B33" s="2">
         <v>0.21</v>
@@ -17230,12 +13765,12 @@
         <v>267</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B34" s="2">
         <v>0.21</v>
@@ -17256,12 +13791,12 @@
         <v>265</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2">
         <v>0.2</v>
@@ -17282,7 +13817,7 @@
         <v>263</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -17292,10 +13827,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17327,13 +13862,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -17342,49 +13877,49 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
       </c>
       <c r="S1" t="s">
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -17392,31 +13927,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -17443,7 +13978,7 @@
         <v>24</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -17451,7 +13986,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -17463,16 +13998,16 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -17499,12 +14034,12 @@
         <v>5</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>307</v>
@@ -17563,7 +14098,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T4">
         <v>2018</v>
@@ -17574,7 +14109,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <f>B$4*Storage_scaler!$C5</f>
@@ -17637,7 +14172,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S5" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T5">
         <v>2018</v>
@@ -17648,7 +14183,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <f>B$4*Storage_scaler!$C10</f>
@@ -17711,7 +14246,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S6" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T6">
         <v>2018</v>
@@ -17722,7 +14257,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <f>B$4*Storage_scaler!$C15</f>
@@ -17785,7 +14320,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T7">
         <v>2018</v>
@@ -17796,7 +14331,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <f>B$4*Storage_scaler!$C25</f>
@@ -17859,7 +14394,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S8" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T8">
         <v>2018</v>
@@ -17870,7 +14405,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <f>B$4*Storage_scaler!$C35</f>
@@ -17933,7 +14468,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S9" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T9">
         <v>2018</v>
@@ -17944,7 +14479,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <f>B$4*Storage_scaler!$B5</f>
@@ -18007,7 +14542,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S10" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T10">
         <v>2018</v>
@@ -18018,7 +14553,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <f>B$4*Storage_scaler!$B10</f>
@@ -18081,7 +14616,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S11" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T11">
         <v>2018</v>
@@ -18092,7 +14627,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <f>B$4*Storage_scaler!$B15</f>
@@ -18155,7 +14690,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S12" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T12">
         <v>2018</v>
@@ -18166,7 +14701,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B13">
         <f>B$4*Storage_scaler!$B25</f>
@@ -18229,7 +14764,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S13" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T13">
         <v>2018</v>
@@ -18240,7 +14775,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <f>B$4*Storage_scaler!$B35</f>
@@ -18303,7 +14838,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S14" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T14">
         <v>2018</v>
@@ -18314,7 +14849,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <v>52.5</v>
@@ -18323,22 +14858,22 @@
         <v>1800</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>2.731941851009843</v>
+        <v>3.4320428423705378</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>93.666577748908907</v>
+        <v>117.67004030984701</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -18373,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="T15">
         <v>2018</v>
@@ -18384,7 +14919,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -18393,22 +14928,22 @@
         <v>1800</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="6">B16*F16</f>
-        <v>0.26018493819141364</v>
+        <v>0.32686122308290833</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16" si="7">C16*F16</f>
-        <v>93.666577748908907</v>
+        <v>117.67004030984701</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -18443,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="T16">
         <v>2018</v>
@@ -18454,7 +14989,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B17">
         <f>B4*5</f>
@@ -18504,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:Q18" si="8">SQRT(0.85)</f>
+        <f t="shared" ref="P17:Q17" si="8">SQRT(0.85)</f>
         <v>0.92195444572928875</v>
       </c>
       <c r="Q17">
@@ -18515,7 +15050,7 @@
         <v>4.1686600000000002E-5</v>
       </c>
       <c r="S17" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T17">
         <v>2018</v>
@@ -18526,41 +15061,38 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B18">
-        <f>B$4*Storage_scaler!$C30</f>
-        <v>135.08000000000001</v>
+        <f>20/inflator_2018</f>
+        <v>20.488495430809412</v>
       </c>
       <c r="C18">
-        <f>C$4*Storage_scaler!$C30</f>
-        <v>129.36000000000001</v>
+        <v>1800</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>7.0000000000000007E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F19" si="9">((E18*(1+E18)^D18)/((1+E18)^D18-1))</f>
-        <v>0.10979462470100652</v>
+        <f t="shared" ref="F18" si="9">((E18*(1+E18)^D18)/((1+E18)^D18-1))</f>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G19" si="10">B18*F18</f>
-        <v>14.831057904611963</v>
+        <f t="shared" ref="G18" si="10">B18*F18</f>
+        <v>1.3393789351285887</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H19" si="11">C18*F18</f>
-        <v>14.203032651322205</v>
+        <f t="shared" ref="H18" si="11">C18*F18</f>
+        <v>117.67004030984701</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18" si="12">I$4/B$4*B18</f>
-        <v>3.3000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18" si="13">J$4/C$4*C18</f>
-        <v>2.64</v>
+        <v>15.9</v>
       </c>
       <c r="K18">
         <v>1.0000000000000001E-5</v>
@@ -18578,18 +15110,18 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
-        <v>0.92195444572928875</v>
+        <f t="shared" ref="P18:Q20" si="12">SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>0.92195444572928875</v>
+        <f t="shared" si="12"/>
+        <v>0.89442719099991586</v>
       </c>
       <c r="R18">
-        <v>4.1686600000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="T18">
         <v>2018</v>
@@ -18600,32 +15132,32 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="B19">
-        <f>20/inflator_2018</f>
-        <v>20.488495430809412</v>
+        <f>10/inflator_2018</f>
+        <v>10.244247715404706</v>
       </c>
       <c r="C19">
         <v>1800</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="9"/>
-        <v>5.2036987638282725E-2</v>
+        <f t="shared" ref="F19:F20" si="13">((E19*(1+E19)^D19)/((1+E19)^D19-1))</f>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="10"/>
-        <v>1.0661595834600415</v>
+        <f t="shared" ref="G19:G20" si="14">B19*F19</f>
+        <v>0.66968946756429437</v>
       </c>
       <c r="H19">
-        <f t="shared" si="11"/>
-        <v>93.666577748908907</v>
+        <f t="shared" ref="H19:H20" si="15">C19*F19</f>
+        <v>117.67004030984701</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -18649,18 +15181,18 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <f>SQRT(0.8)</f>
+        <f t="shared" si="12"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="Q19">
-        <f>SQRT(0.8)</f>
+        <f t="shared" si="12"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="T19">
         <v>2018</v>
@@ -18671,32 +15203,31 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B20">
-        <f>10/inflator_2018</f>
-        <v>10.244247715404706</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1800</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F21" si="14">((E20*(1+E20)^D20)/((1+E20)^D20-1))</f>
-        <v>5.2036987638282725E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G21" si="15">B20*F20</f>
-        <v>0.53307979173002074</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="16">C20*F20</f>
-        <v>93.666577748908907</v>
+        <f t="shared" si="15"/>
+        <v>117.67004030984701</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -18720,93 +15251,23 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f>SQRT(0.8)</f>
+        <f t="shared" si="12"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="Q20">
-        <f>SQRT(0.8)</f>
+        <f t="shared" si="12"/>
         <v>0.89442719099991586</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="T20">
         <v>2018</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1800</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="14"/>
-        <v>5.2036987638282725E-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="16"/>
-        <v>93.666577748908907</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>15.9</v>
-      </c>
-      <c r="K21">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f>SQRT(0.8)</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="Q21">
-        <f>SQRT(0.8)</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>309</v>
-      </c>
-      <c r="T21">
-        <v>2018</v>
-      </c>
-      <c r="U21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -18817,10 +15278,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18924,7 +15385,7 @@
         <v>Source</v>
       </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="U1" t="str">
         <f>Storage_variable_rawUSD!U1</f>
@@ -18949,7 +15410,7 @@
         <v>Lifetime</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F2" t="str">
         <f>Storage_variable_rawUSD!F2</f>
@@ -20035,7 +16496,7 @@
       </c>
       <c r="D15">
         <f>Storage_variable_rawUSD!D15</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <f>Storage_variable_rawUSD!E15</f>
@@ -20043,15 +16504,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="5">B15*F15</f>
-        <v>2.666805730304342</v>
+        <v>3.3502146157688384</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15" si="6">C15*F15</f>
-        <v>91.433339324720293</v>
+        <v>114.86450111207446</v>
       </c>
       <c r="I15">
         <f>Storage_variable_rawUSD!I15*inflator_2018</f>
@@ -20120,7 +16581,7 @@
       </c>
       <c r="D16">
         <f>Storage_variable_rawUSD!D16</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <f>Storage_variable_rawUSD!E16</f>
@@ -20128,15 +16589,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="7">B16*F16</f>
-        <v>0.25398149812422305</v>
+        <v>0.31906805864465126</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16" si="8">C16*F16</f>
-        <v>91.433339324720293</v>
+        <v>114.86450111207446</v>
       </c>
       <c r="I16">
         <f>Storage_variable_rawUSD!I16*inflator_2018</f>
@@ -20278,43 +16739,43 @@
     <row r="18" spans="1:21">
       <c r="A18" t="str">
         <f>Storage_variable_rawUSD!A18</f>
-        <v>Li_2045_mid</v>
+        <v>PHS_20</v>
       </c>
       <c r="B18">
         <f>Storage_variable_rawUSD!B18*inflator_2018</f>
-        <v>131.85936513119898</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f>Storage_variable_rawUSD!C18*inflator_2018</f>
-        <v>126.2757438064251</v>
+        <v>1757.0836336701077</v>
       </c>
       <c r="D18">
         <f>Storage_variable_rawUSD!D18</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <f>Storage_variable_rawUSD!E18</f>
-        <v>7.0000000000000007E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18" si="9">((E18*(1+E18)^D18)/((1+E18)^D18-1))</f>
-        <v>0.10979462470100652</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G18">
         <f>B18*F18</f>
-        <v>14.477449507892979</v>
+        <v>1.3074448923316333</v>
       </c>
       <c r="H18">
         <f>C18*F18</f>
-        <v>13.864397900066892</v>
+        <v>114.86450111207446</v>
       </c>
       <c r="I18">
         <f>Storage_variable_rawUSD!I18*inflator_2018</f>
-        <v>3.2213199950618647</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f>Storage_variable_rawUSD!J18*inflator_2018</f>
-        <v>2.5770559960494914</v>
+        <v>15.520905430752618</v>
       </c>
       <c r="K18">
         <f>Storage_variable_rawUSD!K18*inflator_2018</f>
@@ -20338,19 +16799,19 @@
       </c>
       <c r="P18">
         <f>Storage_variable_rawUSD!P18</f>
-        <v>0.92195444572928875</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="Q18">
         <f>Storage_variable_rawUSD!Q18</f>
-        <v>0.92195444572928875</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="R18">
         <f>Storage_variable_rawUSD!R18</f>
-        <v>4.1686600000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f>Storage_variable_rawUSD!S18</f>
-        <v>Fu 2018, Denholm 2017, Cole2019 ratio</v>
+        <v>PNNL2019 disaggregated, arbitrary</v>
       </c>
       <c r="T18">
         <v>2017</v>
@@ -20363,11 +16824,11 @@
     <row r="19" spans="1:21">
       <c r="A19" t="str">
         <f>Storage_variable_rawUSD!A19</f>
-        <v>PHS_20</v>
+        <v>PHS_10</v>
       </c>
       <c r="B19">
         <f>Storage_variable_rawUSD!B19*inflator_2018</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f>Storage_variable_rawUSD!C19*inflator_2018</f>
@@ -20375,7 +16836,7 @@
       </c>
       <c r="D19">
         <f>Storage_variable_rawUSD!D19</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <f>Storage_variable_rawUSD!E19</f>
@@ -20383,15 +16844,15 @@
       </c>
       <c r="F19">
         <f t="shared" ref="F19" si="10">((E19*(1+E19)^D19)/((1+E19)^D19-1))</f>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G19">
         <f>B19*F19</f>
-        <v>1.0407397527656546</v>
+        <v>0.65372244616581665</v>
       </c>
       <c r="H19">
         <f>C19*F19</f>
-        <v>91.433339324720293</v>
+        <v>114.86450111207446</v>
       </c>
       <c r="I19">
         <f>Storage_variable_rawUSD!I19*inflator_2018</f>
@@ -20448,11 +16909,11 @@
     <row r="20" spans="1:21">
       <c r="A20" t="str">
         <f>Storage_variable_rawUSD!A20</f>
-        <v>PHS_10</v>
+        <v>PHS_0</v>
       </c>
       <c r="B20">
         <f>Storage_variable_rawUSD!B20*inflator_2018</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f>Storage_variable_rawUSD!C20*inflator_2018</f>
@@ -20460,7 +16921,7 @@
       </c>
       <c r="D20">
         <f>Storage_variable_rawUSD!D20</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <f>Storage_variable_rawUSD!E20</f>
@@ -20468,15 +16929,15 @@
       </c>
       <c r="F20">
         <f t="shared" ref="F20" si="11">((E20*(1+E20)^D20)/((1+E20)^D20-1))</f>
-        <v>5.2036987638282725E-2</v>
+        <v>6.5372244616581671E-2</v>
       </c>
       <c r="G20">
         <f>B20*F20</f>
-        <v>0.52036987638282728</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f>C20*F20</f>
-        <v>91.433339324720293</v>
+        <v>114.86450111207446</v>
       </c>
       <c r="I20">
         <f>Storage_variable_rawUSD!I20*inflator_2018</f>
@@ -20527,91 +16988,6 @@
       </c>
       <c r="U20">
         <f>Storage_variable_rawUSD!U20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="str">
-        <f>Storage_variable_rawUSD!A21</f>
-        <v>PHS_0</v>
-      </c>
-      <c r="B21">
-        <f>Storage_variable_rawUSD!B21*inflator_2018</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f>Storage_variable_rawUSD!C21*inflator_2018</f>
-        <v>1757.0836336701077</v>
-      </c>
-      <c r="D21">
-        <f>Storage_variable_rawUSD!D21</f>
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <f>Storage_variable_rawUSD!E21</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="12">((E21*(1+E21)^D21)/((1+E21)^D21-1))</f>
-        <v>5.2036987638282725E-2</v>
-      </c>
-      <c r="G21">
-        <f>B21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f>C21*F21</f>
-        <v>91.433339324720293</v>
-      </c>
-      <c r="I21">
-        <f>Storage_variable_rawUSD!I21*inflator_2018</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>Storage_variable_rawUSD!J21*inflator_2018</f>
-        <v>15.520905430752618</v>
-      </c>
-      <c r="K21">
-        <f>Storage_variable_rawUSD!K21*inflator_2018</f>
-        <v>9.7615757426117113E-6</v>
-      </c>
-      <c r="L21">
-        <f>Storage_variable_rawUSD!L21</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f>Storage_variable_rawUSD!M21</f>
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <f>Storage_variable_rawUSD!N21</f>
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <f>Storage_variable_rawUSD!O21</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f>Storage_variable_rawUSD!P21</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="Q21">
-        <f>Storage_variable_rawUSD!Q21</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="R21">
-        <f>Storage_variable_rawUSD!R21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" t="str">
-        <f>Storage_variable_rawUSD!S21</f>
-        <v>PNNL2019 disaggregated, arbitrary</v>
-      </c>
-      <c r="T21">
-        <v>2017</v>
-      </c>
-      <c r="U21">
-        <f>Storage_variable_rawUSD!U21</f>
         <v>1</v>
       </c>
     </row>

--- a/io/generator_fuel_assumptions.xlsx
+++ b/io/generator_fuel_assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrown/github/zephyr/io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbrown/github/zephyr/io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7FC6E9-8511-B740-9AE2-904D97BB9494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F307F-C4BB-4A46-8848-F0C2B54C2F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-5400" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_rawUSD" sheetId="9" r:id="rId1"/>
@@ -38,13 +38,24 @@
     <definedName name="inflator_2018">Financials!$E$12</definedName>
     <definedName name="wacc">Financials!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -173,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="286">
   <si>
     <t>Technology</t>
   </si>
@@ -1022,13 +1033,22 @@
   </si>
   <si>
     <t>PHS_0</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>Source_heatrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1086,11 +1106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,15 +1426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="A59" sqref="A58:XFD59"/>
+      <selection pane="topRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -1433,7 +1452,7 @@
     <col min="14" max="14" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1502,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1634,7 +1653,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E59" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
+        <f t="shared" ref="E5:E60" si="0">((D5*(1+D5)^C5)/((1+D5)^C5-1))</f>
         <v>6.7439028038694573E-2</v>
       </c>
       <c r="F5">
@@ -1672,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1724,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1776,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -1828,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -1880,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -1984,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2088,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2192,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -2244,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2296,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -2348,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -2400,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2452,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -2608,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -2660,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -2712,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -2755,7 +2774,7 @@
       <c r="M26" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>261</v>
       </c>
       <c r="O26">
@@ -2765,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -2816,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2870,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -2978,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -3032,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>197</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3248,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -3302,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -3410,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -3514,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -3566,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -3618,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -3722,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -3878,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -3930,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -3982,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -4034,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -4138,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -4190,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>140</v>
       </c>
@@ -4242,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -4294,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -4346,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>201</v>
       </c>
@@ -4398,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -4468,7 +4487,7 @@
         <v>6.7439028038694573E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59" si="13">B59*E59</f>
+        <f t="shared" ref="F59:F60" si="13">B59*E59</f>
         <v>337.19514019347287</v>
       </c>
       <c r="G59">
@@ -4499,6 +4518,58 @@
         <v>2017</v>
       </c>
       <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60">
+        <v>10000</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>6.7439028038694573E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="13"/>
+        <v>674.39028038694573</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>0.25</v>
+      </c>
+      <c r="K60">
+        <v>0.25</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>284</v>
+      </c>
+      <c r="N60" t="s">
+        <v>262</v>
+      </c>
+      <c r="O60">
+        <v>2017</v>
+      </c>
+      <c r="P60">
         <v>1</v>
       </c>
     </row>
@@ -4514,13 +4585,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -4528,7 +4599,7 @@
     <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4542,13 +4613,13 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="F1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4559,7 +4630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -4567,7 +4638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4587,7 +4658,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4604,7 +4675,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4615,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -4635,7 +4706,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -4655,7 +4726,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -4675,7 +4746,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -4695,7 +4766,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -4715,7 +4786,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -4735,7 +4806,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -4755,7 +4826,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -4775,7 +4846,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -4795,7 +4866,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -4815,7 +4886,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -4835,7 +4906,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -4855,7 +4926,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -4875,7 +4946,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -4895,7 +4966,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -4915,7 +4986,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -4935,7 +5006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -4955,7 +5026,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -4972,7 +5043,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -4989,7 +5060,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -5006,7 +5077,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -5023,7 +5094,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>277</v>
       </c>
@@ -5040,7 +5111,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>278</v>
       </c>
@@ -5057,7 +5128,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>279</v>
       </c>
@@ -5074,7 +5145,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>280</v>
       </c>
@@ -5091,7 +5162,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -5105,6 +5176,26 @@
         <v>36</v>
       </c>
       <c r="F32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33">
         <v>2017</v>
       </c>
     </row>
@@ -5115,13 +5206,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -5129,7 +5220,7 @@
     <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5149,7 +5240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5160,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -5168,7 +5259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Fuels_rawUSD!A4</f>
         <v>naturalgas</v>
@@ -5193,7 +5284,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Fuels_rawUSD!A5</f>
         <v>uranium</v>
@@ -5218,7 +5309,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Fuels_rawUSD!A6</f>
         <v>none</v>
@@ -5243,7 +5334,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Fuels_rawUSD!A7</f>
         <v>naturalgas_2017</v>
@@ -5268,7 +5359,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Fuels_rawUSD!A8</f>
         <v>naturalgas_2018</v>
@@ -5293,7 +5384,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Fuels_rawUSD!A9</f>
         <v>naturalgas_2020_low</v>
@@ -5318,7 +5409,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Fuels_rawUSD!A10</f>
         <v>naturalgas_2020_mid</v>
@@ -5343,7 +5434,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Fuels_rawUSD!A11</f>
         <v>naturalgas_2020_high</v>
@@ -5368,7 +5459,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Fuels_rawUSD!A12</f>
         <v>naturalgas_2025_low</v>
@@ -5393,7 +5484,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Fuels_rawUSD!A13</f>
         <v>naturalgas_2025_mid</v>
@@ -5418,7 +5509,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>Fuels_rawUSD!A14</f>
         <v>naturalgas_2025_high</v>
@@ -5443,7 +5534,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>Fuels_rawUSD!A15</f>
         <v>naturalgas_2030_low</v>
@@ -5468,7 +5559,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>Fuels_rawUSD!A16</f>
         <v>naturalgas_2030_mid</v>
@@ -5493,7 +5584,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>Fuels_rawUSD!A17</f>
         <v>naturalgas_2030_high</v>
@@ -5518,7 +5609,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>Fuels_rawUSD!A18</f>
         <v>naturalgas_2040_low</v>
@@ -5543,7 +5634,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>Fuels_rawUSD!A19</f>
         <v>naturalgas_2040_mid</v>
@@ -5568,7 +5659,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>Fuels_rawUSD!A20</f>
         <v>naturalgas_2040_high</v>
@@ -5593,7 +5684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>Fuels_rawUSD!A21</f>
         <v>naturalgas_2050_low</v>
@@ -5618,7 +5709,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>Fuels_rawUSD!A22</f>
         <v>naturalgas_2050_mid</v>
@@ -5643,7 +5734,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>Fuels_rawUSD!A23</f>
         <v>naturalgas_2050_high</v>
@@ -5665,6 +5756,256 @@
         <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
       </c>
       <c r="F23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>Fuels_rawUSD!A24</f>
+        <v>naturalgas_2MMbtu</v>
+      </c>
+      <c r="B24">
+        <f>Fuels_rawUSD!B24*inflator_2017</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C24">
+        <f>Fuels_rawUSD!C24</f>
+        <v>53.07</v>
+      </c>
+      <c r="D24">
+        <f>Fuels_rawUSD!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>Fuels_rawUSD!E24</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>Fuels_rawUSD!A25</f>
+        <v>naturalgas_3MMbtu</v>
+      </c>
+      <c r="B25">
+        <f>Fuels_rawUSD!B25*inflator_2017</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C25">
+        <f>Fuels_rawUSD!C25</f>
+        <v>53.07</v>
+      </c>
+      <c r="D25">
+        <f>Fuels_rawUSD!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Fuels_rawUSD!E25</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>Fuels_rawUSD!A26</f>
+        <v>naturalgas_4MMbtu</v>
+      </c>
+      <c r="B26">
+        <f>Fuels_rawUSD!B26*inflator_2017</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C26">
+        <f>Fuels_rawUSD!C26</f>
+        <v>53.07</v>
+      </c>
+      <c r="D26">
+        <f>Fuels_rawUSD!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Fuels_rawUSD!E26</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>Fuels_rawUSD!A27</f>
+        <v>naturalgas_5MMbtu</v>
+      </c>
+      <c r="B27">
+        <f>Fuels_rawUSD!B27*inflator_2017</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27">
+        <f>Fuels_rawUSD!C27</f>
+        <v>53.07</v>
+      </c>
+      <c r="D27">
+        <f>Fuels_rawUSD!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Fuels_rawUSD!E27</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>Fuels_rawUSD!A28</f>
+        <v>naturalgas_6MMbtu</v>
+      </c>
+      <c r="B28">
+        <f>Fuels_rawUSD!B28*inflator_2017</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C28">
+        <f>Fuels_rawUSD!C28</f>
+        <v>53.07</v>
+      </c>
+      <c r="D28">
+        <f>Fuels_rawUSD!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Fuels_rawUSD!E28</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>Fuels_rawUSD!A29</f>
+        <v>naturalgas_7MMbtu</v>
+      </c>
+      <c r="B29">
+        <f>Fuels_rawUSD!B29*inflator_2017</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29">
+        <f>Fuels_rawUSD!C29</f>
+        <v>53.07</v>
+      </c>
+      <c r="D29">
+        <f>Fuels_rawUSD!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Fuels_rawUSD!E29</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>Fuels_rawUSD!A30</f>
+        <v>naturalgas_8MMbtu</v>
+      </c>
+      <c r="B30">
+        <f>Fuels_rawUSD!B30*inflator_2017</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C30">
+        <f>Fuels_rawUSD!C30</f>
+        <v>53.07</v>
+      </c>
+      <c r="D30">
+        <f>Fuels_rawUSD!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Fuels_rawUSD!E30</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>Fuels_rawUSD!A31</f>
+        <v>naturalgas_9MMbtu</v>
+      </c>
+      <c r="B31">
+        <f>Fuels_rawUSD!B31*inflator_2017</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C31">
+        <f>Fuels_rawUSD!C31</f>
+        <v>53.07</v>
+      </c>
+      <c r="D31">
+        <f>Fuels_rawUSD!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Fuels_rawUSD!E31</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>Fuels_rawUSD!A32</f>
+        <v>naturalgas_10MMbtu</v>
+      </c>
+      <c r="B32">
+        <f>Fuels_rawUSD!B32*inflator_2017</f>
+        <v>0.01</v>
+      </c>
+      <c r="C32">
+        <f>Fuels_rawUSD!C32</f>
+        <v>53.07</v>
+      </c>
+      <c r="D32">
+        <f>Fuels_rawUSD!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Fuels_rawUSD!E32</f>
+        <v>https://www.eia.gov/environment/emissions/co2_vol_mass.php</v>
+      </c>
+      <c r="F32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>Fuels_rawUSD!A33</f>
+        <v>coal</v>
+      </c>
+      <c r="B33">
+        <f>Fuels_rawUSD!B33*inflator_2017</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <f>Fuels_rawUSD!C33</f>
+        <v>100</v>
+      </c>
+      <c r="D33" t="str">
+        <f>Fuels_rawUSD!D33</f>
+        <v>None</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Fuels_rawUSD!E33</f>
+        <v>None</v>
+      </c>
+      <c r="F33">
         <v>2017</v>
       </c>
     </row>
@@ -5681,7 +6022,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -5690,7 +6031,7 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -5707,7 +6048,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5718,7 +6059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5729,7 +6070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -5746,7 +6087,7 @@
         <v>1.1241149062626099</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>2011</v>
       </c>
@@ -5754,7 +6095,7 @@
         <v>1.08971765678695</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>2012</v>
       </c>
@@ -5762,7 +6103,7 @@
         <v>1.06762371838985</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>2013</v>
       </c>
@@ -5770,7 +6111,7 @@
         <v>1.0522113523096499</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2014</v>
       </c>
@@ -5778,7 +6119,7 @@
         <v>1.0354149770208101</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>2015</v>
       </c>
@@ -5786,7 +6127,7 @@
         <v>1.03418742115544</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>2016</v>
       </c>
@@ -5794,7 +6135,7 @@
         <v>1.02130354531326</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>2017</v>
       </c>
@@ -5802,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>2018</v>
       </c>
@@ -5823,7 +6164,7 @@
       <selection activeCell="T4" sqref="T4:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -5845,7 +6186,7 @@
     <col min="18" max="18" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5907,7 +6248,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +6304,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -6016,7 +6357,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -6085,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -6154,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -6223,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -6291,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -6360,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -6429,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -6498,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -6567,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -6636,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6719,7 +7060,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -6741,7 +7082,7 @@
     <col min="18" max="18" width="62.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6804,7 +7145,7 @@
         <v>reserves</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6861,7 +7202,7 @@
         <v>Provides reserves</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -6915,7 +7256,7 @@
         <v>[boolean]</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Storage_rawUSD!A4</f>
         <v>Li_2030_mid_atb_1hr</v>
@@ -6996,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Storage_rawUSD!A5</f>
         <v>Li_2030_mid_atb_2hr</v>
@@ -7077,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Storage_rawUSD!A6</f>
         <v>Li_2030_mid_atb_4hr</v>
@@ -7158,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Storage_rawUSD!A7</f>
         <v>Li_2030_mid_atb_8hr</v>
@@ -7239,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Storage_rawUSD!A8</f>
         <v>Li_2030_mid_atb_12hr</v>
@@ -7320,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Storage_rawUSD!A9</f>
         <v>Li_2018_1hr</v>
@@ -7401,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Storage_rawUSD!A10</f>
         <v>Li_2018_2hr</v>
@@ -7482,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Storage_rawUSD!A11</f>
         <v>Li_2018_4hr</v>
@@ -7563,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Storage_rawUSD!A12</f>
         <v>Li_2018_8hr</v>
@@ -7644,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Storage_rawUSD!A13</f>
         <v>Li_2018_12hr</v>
@@ -7733,14 +8074,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+      <selection pane="topRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -7759,7 +8100,7 @@
     <col min="16" max="16" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7810,7 +8151,7 @@
         <v>reserves</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7855,7 +8196,7 @@
         <v>Provides reserves</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -7897,7 +8238,7 @@
         <v>[boolean]</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Generators_rawUSD!A4</f>
         <v>OCGT</v>
@@ -7962,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Generators_rawUSD!A5</f>
         <v>OCGT_2017</v>
@@ -8027,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Generators_rawUSD!A6</f>
         <v>OCGT_2030_mid</v>
@@ -8092,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Generators_rawUSD!A7</f>
         <v>OCGT_2030_low</v>
@@ -8157,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Generators_rawUSD!A8</f>
         <v>OCGT_2040_mid</v>
@@ -8222,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Generators_rawUSD!A9</f>
         <v>OCGT_2040_low</v>
@@ -8287,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Generators_rawUSD!A10</f>
         <v>OCGT_2050_mid</v>
@@ -8352,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Generators_rawUSD!A11</f>
         <v>OCGT_2050_low</v>
@@ -8417,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Generators_rawUSD!A12</f>
         <v>CCGT</v>
@@ -8482,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Generators_rawUSD!A13</f>
         <v>CCGT_2017</v>
@@ -8547,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>Generators_rawUSD!A14</f>
         <v>CCGT_2030_mid</v>
@@ -8612,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>Generators_rawUSD!A15</f>
         <v>CCGT_2030_low</v>
@@ -8677,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>Generators_rawUSD!A16</f>
         <v>CCGT_2040_mid</v>
@@ -8742,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>Generators_rawUSD!A17</f>
         <v>CCGT_2040_low</v>
@@ -8807,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>Generators_rawUSD!A18</f>
         <v>CCGT_2050_mid</v>
@@ -8872,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>Generators_rawUSD!A19</f>
         <v>CCGT_2050_low</v>
@@ -8937,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>Generators_rawUSD!A20</f>
         <v>Nuclear</v>
@@ -9002,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>Generators_rawUSD!A21</f>
         <v>Nuclear_2017</v>
@@ -9067,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>Generators_rawUSD!A22</f>
         <v>Nuclear_2030</v>
@@ -9132,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>Generators_rawUSD!A23</f>
         <v>Nuclear_2040</v>
@@ -9197,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>Generators_rawUSD!A24</f>
         <v>Nuclear_2050</v>
@@ -9262,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>Generators_rawUSD!A25</f>
         <v>Nuclear_existing</v>
@@ -9327,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>Generators_rawUSD!A26</f>
         <v>Nuclear_vogtle</v>
@@ -9392,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>Generators_rawUSD!A27</f>
         <v>Lostload</v>
@@ -9457,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>Generators_rawUSD!A28</f>
         <v>PV_track</v>
@@ -9522,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>Generators_rawUSD!A29</f>
         <v>PV_fixed</v>
@@ -9587,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>Generators_rawUSD!A30</f>
         <v>PV_track_2017</v>
@@ -9652,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>Generators_rawUSD!A31</f>
         <v>PV_track_2025_mid</v>
@@ -9717,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>Generators_rawUSD!A32</f>
         <v>PV_track_2025_low</v>
@@ -9782,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>Generators_rawUSD!A33</f>
         <v>PV_track_2030_mid</v>
@@ -9847,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>Generators_rawUSD!A34</f>
         <v>PV_track_2030_low</v>
@@ -9912,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>Generators_rawUSD!A35</f>
         <v>PV_track_2040_mid</v>
@@ -9977,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>Generators_rawUSD!A36</f>
         <v>PV_track_2040_low</v>
@@ -10042,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>Generators_rawUSD!A37</f>
         <v>PV_track_2050_mid</v>
@@ -10107,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>Generators_rawUSD!A38</f>
         <v>PV_track_2050_low</v>
@@ -10172,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>Generators_rawUSD!A39</f>
         <v>Wind</v>
@@ -10237,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>Generators_rawUSD!A40</f>
         <v>Wind_2017</v>
@@ -10302,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>Generators_rawUSD!A41</f>
         <v>Wind_2025_mid</v>
@@ -10367,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>Generators_rawUSD!A42</f>
         <v>Wind_2025_low</v>
@@ -10432,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>Generators_rawUSD!A43</f>
         <v>Wind_2030_mid</v>
@@ -10497,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>Generators_rawUSD!A44</f>
         <v>Wind_2030_low</v>
@@ -10562,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>Generators_rawUSD!A45</f>
         <v>Wind_2040_mid</v>
@@ -10627,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>Generators_rawUSD!A46</f>
         <v>Wind_2040_low</v>
@@ -10692,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>Generators_rawUSD!A47</f>
         <v>Wind_2050_mid</v>
@@ -10757,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>Generators_rawUSD!A48</f>
         <v>Wind_2050_low</v>
@@ -10822,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>Generators_rawUSD!A49</f>
         <v>Wind_off</v>
@@ -10887,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>Generators_rawUSD!A50</f>
         <v>Wind_off_2017</v>
@@ -10952,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>Generators_rawUSD!A51</f>
         <v>Wind_off_2030_mid</v>
@@ -11017,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>Generators_rawUSD!A52</f>
         <v>Wind_off_2030_low</v>
@@ -11082,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>Generators_rawUSD!A53</f>
         <v>Wind_off_2040_mid</v>
@@ -11147,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>Generators_rawUSD!A54</f>
         <v>Wind_off_2040_low</v>
@@ -11212,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>Generators_rawUSD!A55</f>
         <v>Wind_off_2050_mid</v>
@@ -11277,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>Generators_rawUSD!A56</f>
         <v>Wind_off_2050_low</v>
@@ -11342,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>Generators_rawUSD!A57</f>
         <v>Hydro_ROR</v>
@@ -11407,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>Generators_rawUSD!A58</f>
         <v>Nuclear_4</v>
@@ -11472,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>Generators_rawUSD!A59</f>
         <v>Nuclear_5</v>
@@ -11494,7 +11835,7 @@
         <v>6.7439028038694573E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59" si="6">B59*E59</f>
+        <f t="shared" ref="F59:F60" si="6">B59*E59</f>
         <v>337.19514019347287</v>
       </c>
       <c r="G59">
@@ -11534,6 +11875,69 @@
       </c>
       <c r="P59">
         <f>Generators_rawUSD!P59</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>Generators_rawUSD!A60</f>
+        <v>Coal</v>
+      </c>
+      <c r="B60">
+        <v>3000</v>
+      </c>
+      <c r="C60">
+        <f>Generators_rawUSD!C60</f>
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <f>Generators_rawUSD!D60</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="7">((D60*(1+D60)^C60)/((1+D60)^C60-1))</f>
+        <v>6.7439028038694573E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>202.31708411608372</v>
+      </c>
+      <c r="G60">
+        <f>Generators_rawUSD!G60*inflator_2017</f>
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <f>Generators_rawUSD!H60*inflator_2017</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <f>Generators_rawUSD!J60</f>
+        <v>0.25</v>
+      </c>
+      <c r="K60">
+        <f>Generators_rawUSD!K60</f>
+        <v>0.25</v>
+      </c>
+      <c r="L60">
+        <f>Generators_rawUSD!L60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
+        <f>Generators_rawUSD!M60</f>
+        <v>coal</v>
+      </c>
+      <c r="N60" t="str">
+        <f>Generators_rawUSD!N60</f>
+        <v>None</v>
+      </c>
+      <c r="O60">
+        <v>2017</v>
+      </c>
+      <c r="P60">
+        <f>Generators_rawUSD!P60</f>
         <v>1</v>
       </c>
     </row>
@@ -11551,7 +11955,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -11568,7 +11972,7 @@
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -11612,7 +12016,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -11650,7 +12054,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -11688,7 +12092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>230</v>
       </c>
@@ -11732,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>345</v>
       </c>
@@ -11776,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500</v>
       </c>
@@ -11820,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>765</v>
       </c>
@@ -11864,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11922,7 +12326,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -11938,7 +12342,7 @@
     <col min="13" max="13" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -11985,7 +12389,7 @@
         <v>reserves</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -12026,7 +12430,7 @@
         <v>Provides reserves</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -12067,7 +12471,7 @@
         <v>[boolean]</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>Transmission_raw!A4</f>
         <v>230</v>
@@ -12120,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>Transmission_raw!A5</f>
         <v>345</v>
@@ -12173,7 +12577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>Transmission_raw!A6</f>
         <v>500</v>
@@ -12226,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>Transmission_raw!A7</f>
         <v>765</v>
@@ -12279,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Transmission_raw!A8</f>
         <v>DC</v>
@@ -12345,7 +12749,7 @@
       <selection activeCell="P1" sqref="P1:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
@@ -12363,7 +12767,7 @@
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12817,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12457,7 +12861,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -12498,7 +12902,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -12550,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -12615,7 +13019,7 @@
       <selection activeCell="P1" sqref="P1:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
@@ -12633,7 +13037,7 @@
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12684,7 +13088,7 @@
         <v>reserves</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12729,7 +13133,7 @@
         <v>Provides reserves</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -12771,7 +13175,7 @@
         <v>[boolean]</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Hydro_rawUSD!A4</f>
         <v>Hydro_Res</v>
@@ -12836,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Hydro_rawUSD!A5</f>
         <v>Hydro_ROR</v>
@@ -12914,9 +13318,9 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>188</v>
       </c>
@@ -12936,7 +13340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -12962,7 +13366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -12975,20 +13379,20 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>380</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>380</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>380</v>
       </c>
       <c r="H3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -13001,20 +13405,20 @@
       <c r="D4" s="2">
         <v>0.97</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>339</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>355</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>369</v>
       </c>
       <c r="H4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -13027,20 +13431,20 @@
       <c r="D5" s="2">
         <v>0.94</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>297</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>330</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>359</v>
       </c>
       <c r="H5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -13053,20 +13457,20 @@
       <c r="D6" s="2">
         <v>0.93</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>275</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>313</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>353</v>
       </c>
       <c r="H6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -13079,20 +13483,20 @@
       <c r="D7" s="2">
         <v>0.91</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>252</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>297</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>347</v>
       </c>
       <c r="H7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -13105,20 +13509,20 @@
       <c r="D8" s="2">
         <v>0.9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>229</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>280</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>341</v>
       </c>
       <c r="H8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -13131,20 +13535,20 @@
       <c r="D9" s="2">
         <v>0.88</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>207</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>264</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>336</v>
       </c>
       <c r="H9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -13157,20 +13561,20 @@
       <c r="D10" s="2">
         <v>0.87</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>184</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>248</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>330</v>
       </c>
       <c r="H10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -13183,20 +13587,20 @@
       <c r="D11" s="2">
         <v>0.85</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>172</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>240</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>324</v>
       </c>
       <c r="H11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -13209,20 +13613,20 @@
       <c r="D12" s="2">
         <v>0.84</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>160</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>232</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>318</v>
       </c>
       <c r="H12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -13235,20 +13639,20 @@
       <c r="D13" s="2">
         <v>0.82</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>148</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>224</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>312</v>
       </c>
       <c r="H13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -13261,20 +13665,20 @@
       <c r="D14" s="2">
         <v>0.81</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>136</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>215</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>307</v>
       </c>
       <c r="H14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -13287,20 +13691,20 @@
       <c r="D15" s="2">
         <v>0.79</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>124</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>207</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>301</v>
       </c>
       <c r="H15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -13313,20 +13717,20 @@
       <c r="D16" s="2">
         <v>0.79</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>122</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>205</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>299</v>
       </c>
       <c r="H16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -13339,20 +13743,20 @@
       <c r="D17" s="2">
         <v>0.78</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>120</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>202</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>297</v>
       </c>
       <c r="H17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -13365,20 +13769,20 @@
       <c r="D18" s="2">
         <v>0.78</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>117</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>295</v>
       </c>
       <c r="H18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -13391,20 +13795,20 @@
       <c r="D19" s="2">
         <v>0.77</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>115</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>197</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>293</v>
       </c>
       <c r="H19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -13417,20 +13821,20 @@
       <c r="D20" s="2">
         <v>0.77</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>112</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>194</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>291</v>
       </c>
       <c r="H20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -13443,20 +13847,20 @@
       <c r="D21" s="2">
         <v>0.76</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>110</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>192</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>290</v>
       </c>
       <c r="H21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -13469,20 +13873,20 @@
       <c r="D22" s="2">
         <v>0.76</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>107</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>189</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>288</v>
       </c>
       <c r="H22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -13495,20 +13899,20 @@
       <c r="D23" s="2">
         <v>0.75</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>105</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>187</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>286</v>
       </c>
       <c r="H23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -13521,20 +13925,20 @@
       <c r="D24" s="2">
         <v>0.75</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>102</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>184</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>284</v>
       </c>
       <c r="H24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -13547,20 +13951,20 @@
       <c r="D25" s="2">
         <v>0.74</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>182</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>282</v>
       </c>
       <c r="H25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -13573,20 +13977,20 @@
       <c r="D26" s="2">
         <v>0.74</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>98</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>179</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>280</v>
       </c>
       <c r="H26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -13599,20 +14003,20 @@
       <c r="D27" s="2">
         <v>0.73</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>95</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>176</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>278</v>
       </c>
       <c r="H27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -13625,20 +14029,20 @@
       <c r="D28" s="2">
         <v>0.73</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>93</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>174</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>276</v>
       </c>
       <c r="H28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -13651,20 +14055,20 @@
       <c r="D29" s="2">
         <v>0.72</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>90</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>171</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>274</v>
       </c>
       <c r="H29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -13677,20 +14081,20 @@
       <c r="D30" s="2">
         <v>0.72</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>88</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>169</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>273</v>
       </c>
       <c r="H30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -13703,20 +14107,20 @@
       <c r="D31" s="2">
         <v>0.71</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>85</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>166</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>271</v>
       </c>
       <c r="H31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -13729,20 +14133,20 @@
       <c r="D32" s="2">
         <v>0.71</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>83</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>163</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>269</v>
       </c>
       <c r="H32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -13755,20 +14159,20 @@
       <c r="D33" s="2">
         <v>0.7</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>81</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>161</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -13781,20 +14185,20 @@
       <c r="D34" s="2">
         <v>0.7</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>78</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>158</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>265</v>
       </c>
       <c r="H34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -13807,13 +14211,13 @@
       <c r="D35" s="2">
         <v>0.69</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>76</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>156</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>263</v>
       </c>
       <c r="H35" t="s">
@@ -13833,7 +14237,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -13857,7 +14261,7 @@
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13922,7 +14326,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13981,7 +14385,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -14037,7 +14441,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -14107,7 +14511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -14181,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -14255,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -14329,7 +14733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -14403,7 +14807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -14477,7 +14881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -14551,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -14625,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -14699,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -14773,7 +15177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -14847,7 +15251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -14917,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -14987,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -15059,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -15130,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -15201,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -15284,7 +15688,7 @@
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -15308,7 +15712,7 @@
     <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>Storage_variable_rawUSD!A1</f>
         <v>Technology</v>
@@ -15392,7 +15796,7 @@
         <v>reserves</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Storage_variable_rawUSD!A2</f>
         <v>Technology</v>
@@ -15469,7 +15873,7 @@
         <v>Provides reserves</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>Storage_variable_rawUSD!A3</f>
         <v>0</v>
@@ -15546,7 +15950,7 @@
         <v>[boolean]</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Storage_variable_rawUSD!A4</f>
         <v>Li_2018</v>
@@ -15631,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Storage_variable_rawUSD!A5</f>
         <v>Li_2020_mid</v>
@@ -15716,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Storage_variable_rawUSD!A6</f>
         <v>Li_2025_mid</v>
@@ -15801,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Storage_variable_rawUSD!A7</f>
         <v>Li_2030_mid</v>
@@ -15886,7 +16290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Storage_variable_rawUSD!A8</f>
         <v>Li_2040_mid</v>
@@ -15971,7 +16375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Storage_variable_rawUSD!A9</f>
         <v>Li_2050_mid</v>
@@ -16056,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Storage_variable_rawUSD!A10</f>
         <v>Li_2020_low</v>
@@ -16141,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Storage_variable_rawUSD!A11</f>
         <v>Li_2025_low</v>
@@ -16226,7 +16630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>Storage_variable_rawUSD!A12</f>
         <v>Li_2030_low</v>
@@ -16311,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>Storage_variable_rawUSD!A13</f>
         <v>Li_2040_low</v>
@@ -16396,7 +16800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>Storage_variable_rawUSD!A14</f>
         <v>Li_2050_low</v>
@@ -16481,7 +16885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>Storage_variable_rawUSD!A15</f>
         <v>PHS</v>
@@ -16566,7 +16970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>Storage_variable_rawUSD!A16</f>
         <v>PHS_low</v>
@@ -16651,7 +17055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>Storage_variable_rawUSD!A17</f>
         <v>Li_2018_5x</v>
@@ -16736,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>Storage_variable_rawUSD!A18</f>
         <v>PHS_20</v>
@@ -16821,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>Storage_variable_rawUSD!A19</f>
         <v>PHS_10</v>
@@ -16906,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>Storage_variable_rawUSD!A20</f>
         <v>PHS_0</v>
